--- a/Preplane/src/main/webapp/ExcelFiles/flights.xlsx
+++ b/Preplane/src/main/webapp/ExcelFiles/flights.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="16">
   <si>
     <t>DepDate</t>
   </si>
@@ -55,6 +55,15 @@
   </si>
   <si>
     <t>ON_TIME</t>
+  </si>
+  <si>
+    <t>MRS</t>
+  </si>
+  <si>
+    <t>ANN</t>
+  </si>
+  <si>
+    <t>Jean</t>
   </si>
 </sst>
 </file>
@@ -396,9 +405,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:I3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I3" sqref="I3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData>
@@ -458,6 +469,35 @@
       </c>
       <c r="I2">
         <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" s="1">
+        <v>42440</v>
+      </c>
+      <c r="B3" s="1">
+        <v>42440</v>
+      </c>
+      <c r="C3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3">
+        <v>123</v>
+      </c>
+      <c r="F3">
+        <v>123</v>
+      </c>
+      <c r="G3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I3">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
